--- a/output/fit_clients/fit_round_12.xlsx
+++ b/output/fit_clients/fit_round_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>8497878422.075565</v>
+        <v>5278073669.429874</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1464142210799137</v>
+        <v>0.2367244393038119</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1472504875569927</v>
+        <v>0.4623826769033757</v>
       </c>
       <c r="I2" t="n">
-        <v>1.33652254991303</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.476915632397105</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.750458149366102</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7.532247354924934</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>5235405322.713106</v>
+        <v>10024325721.70447</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2776788730555493</v>
+        <v>0.1570433197907224</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5673943874508294</v>
+        <v>0.2320958274272822</v>
       </c>
       <c r="I3" t="n">
-        <v>5.556847986082157</v>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4946317272003546</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.718414645142174</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8149650134878316</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8.580885624614458</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>10095369061.19677</v>
+        <v>4140394583.942024</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1471163779151562</v>
+        <v>0.3163213006507833</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1494979083717803</v>
+        <v>0.6924260113819827</v>
       </c>
       <c r="I4" t="n">
-        <v>5.676996050646095</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.352785098921531</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7634065296194553</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.915345493467575</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>10173068285.64739</v>
+        <v>7086641480.971901</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1426454653850436</v>
+        <v>0.1519153033056151</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1351876839647224</v>
+        <v>0.2172753182824172</v>
       </c>
       <c r="I5" t="n">
-        <v>5.546835647368495</v>
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01687229370702229</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.124858180803227</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6485058859231537</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.845259537659847</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>8177075647.016396</v>
+        <v>9833116860.404182</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1495956724390014</v>
+        <v>0.1369216372706323</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1574334832166144</v>
+        <v>0.1739420401559006</v>
       </c>
       <c r="I6" t="n">
-        <v>4.675762179279941</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.428893734229589</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.771043827068525</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.991982807140912</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>5348315053.090863</v>
+        <v>14033766352.96914</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2199021744839643</v>
+        <v>0.1142292553317903</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3824662510827686</v>
+        <v>0.108358660106306</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9887774085262675</v>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4772818131828728</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.701064731124691</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8201389974948756</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.701715218772822</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>10536208205.33102</v>
+        <v>10993904804.3552</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1451873131385164</v>
+        <v>0.1095988569523246</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1433234753754873</v>
+        <v>0.09497631983369972</v>
       </c>
       <c r="I8" t="n">
-        <v>5.847205808778342</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.333118722769344</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7405414933530862</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.47771114429238</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>7857990854.571096</v>
+        <v>10520910010.72756</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.148003374084288</v>
+        <v>0.126725683295508</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1523369516639464</v>
+        <v>0.1444746565061401</v>
       </c>
       <c r="I9" t="n">
-        <v>4.445478388865726</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.638333944083488</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7683365294936888</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.728396645790287</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>8226385066.745969</v>
+        <v>6229341004.205215</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1760825269236975</v>
+        <v>0.2194969867722714</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2422109931679327</v>
+        <v>0.4125935199207647</v>
       </c>
       <c r="I10" t="n">
-        <v>5.536823308654834</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.312072885513312</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7753299212654456</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.194525539795599</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>5547438164.830441</v>
+        <v>11720837054.34817</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1940660279595754</v>
+        <v>0.1293957763398277</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2997714875222012</v>
+        <v>0.1521915073579082</v>
       </c>
       <c r="I11" t="n">
-        <v>1.084199388582964</v>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1639099209783007</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7.38769283892012</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.804380735403325</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.69992186914638</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>10026217688.03429</v>
+        <v>11163122815.63837</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1264469613015711</v>
+        <v>0.1140382992308054</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08334049909320335</v>
+        <v>0.1078067768100776</v>
       </c>
       <c r="I12" t="n">
-        <v>4.845971937412187</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.38454672139727</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7555866689819696</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7.727186658242121</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>6340375560.622815</v>
+        <v>7213905428.525801</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1954097920783569</v>
+        <v>0.1986172877085806</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3040725258360579</v>
+        <v>0.3522489847941412</v>
       </c>
       <c r="I13" t="n">
-        <v>1.336064707246465</v>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1720753763549043</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7.395858294296723</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7883796254943675</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.371734215590626</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>9236141541.051254</v>
+        <v>10599504415.21455</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1500255603317968</v>
+        <v>0.1519811480702509</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1588094421901677</v>
+        <v>0.2174656166052208</v>
       </c>
       <c r="I14" t="n">
-        <v>5.296527179526957</v>
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9598914325408711</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.40148039615771</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.350577423089513</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8815708013545075</v>
+      </c>
+      <c r="N14" t="n">
+        <v>14.28083860400064</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>3885413096.35091</v>
+        <v>9072324529.021545</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3782037465668965</v>
+        <v>0.108271176461755</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8891482774564292</v>
+        <v>0.09113918301694197</v>
       </c>
       <c r="I15" t="n">
-        <v>5.616922018364126</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.213829997010389</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6177701093286533</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.141572189562677</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>7998781968.289037</v>
+        <v>5648317999.613484</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1955017446655689</v>
+        <v>0.2360471754761747</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3043668420743986</v>
+        <v>0.460425312924509</v>
       </c>
       <c r="I16" t="n">
-        <v>5.977366212055942</v>
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5258316820720482</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.633817569168253</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.7184259535434143</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.734701501700034</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>4467574078.818062</v>
+        <v>3919077966.751165</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2597359885987591</v>
+        <v>0.366266181019598</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5099638961680764</v>
+        <v>0.8367719896749369</v>
       </c>
       <c r="I17" t="n">
-        <v>1.046205513220383</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7.63381963634322</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7888912200098747</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8.144004763854273</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>11197565526.50062</v>
+        <v>10842504447.34848</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1090090285349252</v>
+        <v>0.1012242526926884</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02752622641280938</v>
+        <v>0.07077282919067615</v>
       </c>
       <c r="I18" t="n">
-        <v>4.66574984056628</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7.384580907691626</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7152570441631543</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.920559975571459</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>10336650281.27415</v>
+        <v>6990820677.904743</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1272108220960257</v>
+        <v>0.1873449571005926</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08578541818092353</v>
+        <v>0.3196707590133143</v>
       </c>
       <c r="I19" t="n">
-        <v>5.026194034258095</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7.725020552861492</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7634065296194553</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7.543110039527614</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>10163509685.45324</v>
+        <v>7195437675.643167</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1507690942817914</v>
+        <v>0.20567968436579</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1611893003526849</v>
+        <v>0.3726600569010295</v>
       </c>
       <c r="I20" t="n">
-        <v>5.857218147492003</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7.969675283499079</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.797472324636302</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.979771209226961</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>7376336319.079162</v>
+        <v>11319798383.09497</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1917578780052938</v>
+        <v>0.0872374221324252</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.292383701787534</v>
+        <v>0.03034941190485574</v>
       </c>
       <c r="I21" t="n">
-        <v>5.406662905377233</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.9594240876677752</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.855868407975154</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5365717384730351</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7.875566361485547</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>4291977101.543328</v>
+        <v>13212587467.88448</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3344439371505135</v>
+        <v>0.1197427501498553</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7490845458265101</v>
+        <v>0.1242932423387553</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486761615086526</v>
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9586076669818611</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3003028985306547</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.530876830374593</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.9054153325045595</v>
+      </c>
+      <c r="N22" t="n">
+        <v>14.5774298197166</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>7454250812.376952</v>
+        <v>8878392991.358219</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1679670367303821</v>
+        <v>0.1587260015829076</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2162354266460132</v>
+        <v>0.2369589554927639</v>
       </c>
       <c r="I23" t="n">
-        <v>4.785897905130218</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>7.695688268109913</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7837400165542695</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.979112062975476</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>10852735813.2887</v>
+        <v>13781001631.31378</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.126712726971217</v>
+        <v>0.1081512759285489</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08419114565510999</v>
+        <v>0.09079265781484576</v>
       </c>
       <c r="I24" t="n">
-        <v>5.25647782467231</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2958346413341096</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7.519617559275928</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.7994603934483461</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.469590309690993</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>3951341114.748065</v>
+        <v>3516214157.274767</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3347703758257633</v>
+        <v>0.3672584240434504</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7501293908478573</v>
+        <v>0.8396396767917084</v>
       </c>
       <c r="I25" t="n">
-        <v>1.262516953461486</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>7.556614543545712</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7595200817694038</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.633787091842364</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>8326171493.350724</v>
+        <v>12692707762.91678</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1315016176251463</v>
+        <v>0.1219644790470033</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.09951913506600195</v>
+        <v>0.1307142734593103</v>
       </c>
       <c r="I26" t="n">
-        <v>4.185157582310525</v>
+        <v>4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9592251891506859</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.4035505563180677</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4.015442015288977</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.9273440420707797</v>
+      </c>
+      <c r="N26" t="n">
+        <v>14.53143882612662</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>10870243405.74877</v>
+        <v>13155087108.45785</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1347015844397405</v>
+        <v>0.1168811667549838</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.109761393867435</v>
+        <v>0.1160229641530956</v>
       </c>
       <c r="I27" t="n">
-        <v>5.596897340936803</v>
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9504030144958618</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.4085030286655881</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4.020394487636497</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.9209724633537778</v>
+      </c>
+      <c r="N27" t="n">
+        <v>14.39905477943906</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>8023337716.362836</v>
+        <v>7306457613.983441</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1436473997161457</v>
+        <v>0.207214973382234</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1383946143223702</v>
+        <v>0.3770972042803918</v>
       </c>
       <c r="I28" t="n">
-        <v>4.405429034011079</v>
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.965162134700138</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3968720896008938</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5.504857976697099</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.9774012052865273</v>
+      </c>
+      <c r="N28" t="n">
+        <v>14.04316612903345</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>10032894018.11373</v>
+        <v>8470078199.892803</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1360227854033063</v>
+        <v>0.191117836435145</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1139902134088836</v>
+        <v>0.3305747786947245</v>
       </c>
       <c r="I29" t="n">
-        <v>5.216428469817664</v>
+        <v>4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3165248017340215</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.928416260704931</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.6768438638881236</v>
+      </c>
+      <c r="N29" t="n">
+        <v>9.60846101705754</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>10921617888.44695</v>
+        <v>4725407244.621813</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1410231831704392</v>
+        <v>0.2644108677452194</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1299951819002762</v>
+        <v>0.5423993787014683</v>
       </c>
       <c r="I30" t="n">
-        <v>1.377897136492549</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>7.312699767073947</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.750458149366102</v>
+      </c>
+      <c r="N30" t="n">
+        <v>7.696463220248092</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>3669257255.429778</v>
+        <v>12080522641.85175</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4011975932790175</v>
+        <v>0.08131032730297784</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9627455809634293</v>
+        <v>0.01321948196461116</v>
       </c>
       <c r="I31" t="n">
-        <v>5.626934357077788</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.877892157049246</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.3630283506031459</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.382674855013672</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>9574373884.482754</v>
+        <v>13294206934.41989</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1225653744211804</v>
+        <v>0.07822187777953205</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07091655231728985</v>
+        <v>0.004293536711000135</v>
       </c>
       <c r="I32" t="n">
-        <v>4.485527743720372</v>
+        <v>7</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.9640426983626121</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1673404690234749</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.897673772736412</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5842599434898261</v>
+      </c>
+      <c r="N32" t="n">
+        <v>8.787525097060112</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>4937606473.10301</v>
+        <v>13617130228.40299</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2222786315553145</v>
+        <v>0.09983479537886721</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.390072670075695</v>
+        <v>0.0667571508312773</v>
       </c>
       <c r="I33" t="n">
-        <v>4.195169921024187</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>7.421875850430174</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7737291241486213</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8.052706632542252</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>4396423710.119881</v>
+        <v>9276387232.282433</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.319944692037348</v>
+        <v>0.119725635874165</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7026762455287824</v>
+        <v>0.1242437802747951</v>
       </c>
       <c r="I34" t="n">
-        <v>5.376625889236249</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.271897927361281</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.4765300042160016</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-12.80249801168131</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>6584138012.259305</v>
+        <v>5944580152.782954</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1885730307730831</v>
+        <v>0.2692279772274163</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2821898368241357</v>
+        <v>0.5563213337770906</v>
       </c>
       <c r="I35" t="n">
-        <v>1.179130558072823</v>
+        <v>2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9608330523483043</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4296130053344095</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5.537598892430614</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.9951344839356052</v>
+      </c>
+      <c r="N35" t="n">
+        <v>14.36509078628149</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>6244516794.63044</v>
+        <v>13479269494.47074</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2474875400013175</v>
+        <v>0.089973538291336</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4707598082135104</v>
+        <v>0.03825707652963163</v>
       </c>
       <c r="I36" t="n">
-        <v>5.907279841060311</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>7.368525888021112</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7423140393581794</v>
+      </c>
+      <c r="N36" t="n">
+        <v>7.477754899142476</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>5282934906.659547</v>
+        <v>12367103701.79996</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2275818330610904</v>
+        <v>0.08006154422849161</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4070468343234553</v>
+        <v>0.009610367011660969</v>
       </c>
       <c r="I37" t="n">
-        <v>4.595663469570649</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.211058635507915</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.5417245725865591</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-14.0455500872391</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>5290527634.759929</v>
+        <v>6485210331.548326</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2024997474658526</v>
+        <v>0.1942769047706732</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.326765623038865</v>
+        <v>0.3397048197723849</v>
       </c>
       <c r="I38" t="n">
-        <v>4.095046533887571</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>7.409046167212346</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7527475600798272</v>
+      </c>
+      <c r="N38" t="n">
+        <v>7.645905034384199</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>10548376415.45563</v>
+        <v>6465220303.300577</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1105031242810131</v>
+        <v>0.2321514812470916</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03230843703941945</v>
+        <v>0.4491663452290268</v>
       </c>
       <c r="I39" t="n">
-        <v>1.083806074068805</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.103388498630432</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.801436993059378</v>
+      </c>
+      <c r="N39" t="n">
+        <v>7.925351362557128</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>10873661935.63041</v>
+        <v>3683511033.101976</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1281551227405535</v>
+        <v>0.3776006308928283</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0888078781462904</v>
+        <v>0.8695297466919194</v>
       </c>
       <c r="I40" t="n">
-        <v>5.326564195667942</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>7.624740794951008</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7800866160886929</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7.976991526822849</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>5386022669.054413</v>
+        <v>10449888802.08558</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2378158780057411</v>
+        <v>0.1122965748464037</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.439803341806768</v>
+        <v>0.1027730094183725</v>
       </c>
       <c r="I41" t="n">
-        <v>4.896033630980495</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>7.474371035765436</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7333503714866192</v>
+      </c>
+      <c r="N41" t="n">
+        <v>7.192636393966946</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>4894840039.912314</v>
+        <v>5991858375.258335</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2488368036684237</v>
+        <v>0.1888523408150836</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4750784491465491</v>
+        <v>0.3240272571233173</v>
       </c>
       <c r="I42" t="n">
-        <v>1.20182055146</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>7.425753112242561</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7234985540168412</v>
+      </c>
+      <c r="N42" t="n">
+        <v>7.044217968094261</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>8866202660.546944</v>
+        <v>5857276191.596031</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1438770326868783</v>
+        <v>0.1690426381840469</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1391296095432139</v>
+        <v>0.2667751246754252</v>
       </c>
       <c r="I43" t="n">
-        <v>4.876008953553172</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.298268871931855</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.5298966054578949</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6.299663237226042</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>4360785645.323081</v>
+        <v>10027691244.26654</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3453848394532616</v>
+        <v>0.1538560245243019</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.7841035192717545</v>
+        <v>0.2228842075386653</v>
       </c>
       <c r="I44" t="n">
-        <v>5.757094760355388</v>
+        <v>4</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9572353613206135</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.2149339664494343</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.826825425420344</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.9251714297075431</v>
+      </c>
+      <c r="N44" t="n">
+        <v>14.67660316873052</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>3942109511.030584</v>
+        <v>8585816533.224689</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.397349494126686</v>
+        <v>0.1147113540324034</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.950428819667031</v>
+        <v>0.1097519762592307</v>
       </c>
       <c r="I45" t="n">
-        <v>5.987378550769603</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.845987662525006</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.366124296917817</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.476498275831335</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>3781942314.529996</v>
+        <v>13232226006.50817</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2839678161863941</v>
+        <v>0.1175854810244878</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5875236534294122</v>
+        <v>0.1180585067654013</v>
       </c>
       <c r="I46" t="n">
-        <v>4.105058872601233</v>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5126239661604088</v>
+      </c>
+      <c r="L46" t="n">
+        <v>7.736406884102228</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.811632149294045</v>
+      </c>
+      <c r="N46" t="n">
+        <v>8.496236101778674</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>8829879191.446625</v>
+        <v>3315579655.0781</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1409090909426313</v>
+        <v>0.3310203717528081</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.129630002449317</v>
+        <v>0.7349078790439237</v>
       </c>
       <c r="I47" t="n">
-        <v>4.755860888989234</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>7.472087339513479</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7152570441631543</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6.833053543749607</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>7813521501.793485</v>
+        <v>10755798039.47319</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.196114280820533</v>
+        <v>0.1419796433882089</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3063274104764718</v>
+        <v>0.1885602119457208</v>
       </c>
       <c r="I48" t="n">
-        <v>5.857218147492003</v>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2364238167667653</v>
+      </c>
+      <c r="L48" t="n">
+        <v>7.460206734708584</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8063293516805489</v>
+      </c>
+      <c r="N48" t="n">
+        <v>8.666380298902393</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>5946739192.868297</v>
+        <v>11461389744.63431</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1938090039970457</v>
+        <v>0.0985008899578278</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.298948820883787</v>
+        <v>0.06290202330812815</v>
       </c>
       <c r="I49" t="n">
-        <v>4.405429034011079</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7.562994326704955</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.722872342190966</v>
+      </c>
+      <c r="N49" t="n">
+        <v>6.894452517114364</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>4252735456.62826</v>
+        <v>9820100973.135921</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3258272996596419</v>
+        <v>0.1389702808284058</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.7215049375702203</v>
+        <v>0.1798628363683793</v>
       </c>
       <c r="I50" t="n">
-        <v>5.296527179526957</v>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.06182389313638753</v>
+      </c>
+      <c r="L50" t="n">
+        <v>7.285606811078206</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.7747971794337279</v>
+      </c>
+      <c r="N50" t="n">
+        <v>8.210336777596353</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>7177844783.291486</v>
+        <v>7141005788.922787</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1740702213160773</v>
+        <v>0.1885401720425013</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2357701279918249</v>
+        <v>0.323125056406484</v>
       </c>
       <c r="I51" t="n">
-        <v>4.775885566416556</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>7.330795148872114</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.771043827068525</v>
+      </c>
+      <c r="N51" t="n">
+        <v>8.090081392498387</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>10591379596.41068</v>
+        <v>6565020336.146002</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.132312664015452</v>
+        <v>0.1707685372773943</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.102115082933834</v>
+        <v>0.2717631553048809</v>
       </c>
       <c r="I52" t="n">
-        <v>5.356601211808926</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5.641109175397734</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.661908184919607</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.597054522994407</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>9063776626.049629</v>
+        <v>8499810350.021056</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1314929194718522</v>
+        <v>0.1627139739649102</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.09949129454692965</v>
+        <v>0.2484846167944752</v>
       </c>
       <c r="I53" t="n">
-        <v>4.555614114716002</v>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.07673591479621576</v>
+      </c>
+      <c r="L53" t="n">
+        <v>7.300518832738034</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.7785085792870092</v>
+      </c>
+      <c r="N53" t="n">
+        <v>8.269652753002148</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>8595162669.805573</v>
+        <v>7372390130.496063</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1685276620870244</v>
+        <v>0.2160207330065481</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2180298421278202</v>
+        <v>0.402546779456026</v>
       </c>
       <c r="I54" t="n">
-        <v>5.536823308654834</v>
+        <v>5</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.9679015547547829</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2626276571981633</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.493201589042101</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.9123843107543911</v>
+      </c>
+      <c r="N54" t="n">
+        <v>14.75448462604572</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>10037400052.4622</v>
+        <v>4658295496.213335</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1479660193115127</v>
+        <v>0.2839648002311746</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1522173887833287</v>
+        <v>0.5989123084215273</v>
       </c>
       <c r="I55" t="n">
-        <v>5.676996050646095</v>
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3164783162604135</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4.487131328501542</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.6556473331065036</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8.625815333628529</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>9799657789.269571</v>
+        <v>5278129785.424729</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1566343001977838</v>
+        <v>0.2372181948722669</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1799622940729045</v>
+        <v>0.4638096826352933</v>
       </c>
       <c r="I56" t="n">
-        <v>5.867230486205664</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>7.494395252074547</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7510320297197728</v>
+      </c>
+      <c r="N56" t="n">
+        <v>7.526245342320909</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>5182555443.929506</v>
+        <v>11869125557.4491</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2107619767540412</v>
+        <v>0.08297920813398756</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3532108631146239</v>
+        <v>0.01804272379495642</v>
       </c>
       <c r="I57" t="n">
-        <v>4.175145243596864</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.351732596591749</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6186729977957589</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.02172735932343</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>6957895791.816607</v>
+        <v>3829224061.995499</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1637613847767199</v>
+        <v>0.4227443977661662</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2027742321293378</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>4.355367340442772</v>
+        <v>5</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.9635581813141799</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4189731579159043</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.649547089759842</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.9174451207980481</v>
+      </c>
+      <c r="N58" t="n">
+        <v>14.69935532620112</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>11830037205.87509</v>
+        <v>10462664794.61733</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1151376598649712</v>
+        <v>0.1509646157079019</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.04714237614743106</v>
+        <v>0.2145277307353144</v>
       </c>
       <c r="I59" t="n">
-        <v>5.206416131104003</v>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4090073128680325</v>
+      </c>
+      <c r="L59" t="n">
+        <v>7.632790230809851</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8159114423731419</v>
+      </c>
+      <c r="N59" t="n">
+        <v>8.68543861665299</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>8144756054.68224</v>
+        <v>4946903157.17892</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1884602227119601</v>
+        <v>0.2054463747739062</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.2818287676556555</v>
+        <v>0.3719857675437037</v>
       </c>
       <c r="I60" t="n">
-        <v>5.867230486205664</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>7.265176669736653</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6946552062240785</v>
+      </c>
+      <c r="N60" t="n">
+        <v>6.627927454744918</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>10393996355.76186</v>
+        <v>7984381682.974987</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1018120002912425</v>
+        <v>0.1256485987060424</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.004490416936026688</v>
+        <v>0.1413617683057362</v>
       </c>
       <c r="I61" t="n">
-        <v>4.044984840319263</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>7.303524250143921</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6911957813913892</v>
+      </c>
+      <c r="N61" t="n">
+        <v>6.520391377683863</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>4999384365.794008</v>
+        <v>9362256222.153732</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.301266944047178</v>
+        <v>0.1628330761117859</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.6428936478247116</v>
+        <v>0.2488288345757697</v>
       </c>
       <c r="I62" t="n">
-        <v>5.757094760355388</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>7.936511692818671</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8058432277996714</v>
+      </c>
+      <c r="N62" t="n">
+        <v>8.180352863174759</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>4919051685.311708</v>
+        <v>10340457129.59701</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.298731927210251</v>
+        <v>0.1509755729784493</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6347797203954085</v>
+        <v>0.2145593984042506</v>
       </c>
       <c r="I63" t="n">
-        <v>5.616922018364126</v>
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.3649754357957464</v>
+      </c>
+      <c r="L63" t="n">
+        <v>7.588758353737565</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8125876534836102</v>
+      </c>
+      <c r="N63" t="n">
+        <v>8.662994715934641</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>6152800980.748027</v>
+        <v>7002473793.641141</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2222275000082593</v>
+        <v>0.1780555953143631</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.3899090113354016</v>
+        <v>0.2928235225228306</v>
       </c>
       <c r="I64" t="n">
-        <v>5.226440808531326</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>7.608543863478411</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7498832431976817</v>
+      </c>
+      <c r="N64" t="n">
+        <v>7.389121000475224</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>9795001985.617666</v>
+        <v>13073690569.75653</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.123281117428365</v>
+        <v>0.07673627922025107</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.07320745892340427</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>4.615688146997972</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.222176849639786</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.5362754034089168</v>
+      </c>
+      <c r="N65" t="n">
+        <v>6.503331218538549</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>9128163410.496681</v>
+        <v>10780437171.90276</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1348697700332922</v>
+        <v>0.1129839477358615</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1102997120674778</v>
+        <v>0.1047595896533867</v>
       </c>
       <c r="I66" t="n">
-        <v>4.705799195420926</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>7.784306854094175</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7434902722017727</v>
+      </c>
+      <c r="N66" t="n">
+        <v>7.085498589941278</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>7661133750.321306</v>
+        <v>11398140189.02838</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1569349980281412</v>
+        <v>0.08847628940120675</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1809247493663481</v>
+        <v>0.03392986913224055</v>
       </c>
       <c r="I67" t="n">
-        <v>4.595663469570649</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.9602845455099194</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2.916582864416776</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.5558701975639894</v>
+      </c>
+      <c r="N67" t="n">
+        <v>8.200821086863012</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>5369205637.004216</v>
+        <v>13658945264.26926</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2175830130156519</v>
+        <v>0.09837853831328676</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.3750432203649394</v>
+        <v>0.06254841413544394</v>
       </c>
       <c r="I68" t="n">
-        <v>4.465503066293048</v>
+        <v>8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.9557514705337793</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3471772152232155</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.901170158771318</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.692794458463136</v>
+      </c>
+      <c r="N68" t="n">
+        <v>10.9547190104914</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>8095594378.820662</v>
+        <v>15309447190.32854</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1760152613040849</v>
+        <v>0.08041526808216387</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2419956934712707</v>
+        <v>0.0106326663009342</v>
       </c>
       <c r="I69" t="n">
-        <v>5.44671226023188</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>7.304924560076994</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7464120118799918</v>
+      </c>
+      <c r="N69" t="n">
+        <v>7.623315677522843</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>6349666480.608324</v>
+        <v>12816998042.85935</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2091496827519623</v>
+        <v>0.08236048460568407</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.3480503307122328</v>
+        <v>0.0162545474628413</v>
       </c>
       <c r="I70" t="n">
-        <v>1.505409245700035</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>7.289678136284442</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7047993663272925</v>
+      </c>
+      <c r="N70" t="n">
+        <v>6.806309190261407</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>10878356314.62589</v>
+        <v>10301752153.09704</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1004090690182144</v>
+        <v>0.1456946787007274</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1992970562953006</v>
       </c>
       <c r="I71" t="n">
-        <v>4.175145243596864</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>8.101889902312518</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.801436993059378</v>
+      </c>
+      <c r="N71" t="n">
+        <v>7.926849958875042</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>10728173140.80971</v>
+        <v>4407425906.24073</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1140226871755795</v>
+        <v>0.3161744541245357</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.04357363950016457</v>
+        <v>0.6920016094145817</v>
       </c>
       <c r="I72" t="n">
-        <v>1.018240255471363</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>7.542533528404841</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.780610976723634</v>
+      </c>
+      <c r="N72" t="n">
+        <v>8.069686006067837</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>4782416331.192013</v>
+        <v>10059076243.18755</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2787857471345837</v>
+        <v>0.1486887715969878</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.5709372025595245</v>
+        <v>0.2079503009325739</v>
       </c>
       <c r="I73" t="n">
-        <v>5.096280405253726</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.3511960648522946</v>
+      </c>
+      <c r="L73" t="n">
+        <v>7.574978982794113</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.8004501168599378</v>
+      </c>
+      <c r="N73" t="n">
+        <v>8.434023354404644</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>9941121373.531076</v>
+        <v>10806467825.94814</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1193611490509875</v>
+        <v>0.09404768851110049</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.06066066299057678</v>
+        <v>0.0500318008825917</v>
       </c>
       <c r="I74" t="n">
-        <v>4.53558943728868</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.339889049947748</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.5424819163874859</v>
+      </c>
+      <c r="N74" t="n">
+        <v>6.509749277801969</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>5555545342.697185</v>
+        <v>5300312473.167702</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2678069259133569</v>
+        <v>0.1957013752021447</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.5357968605504694</v>
+        <v>0.3438216897390719</v>
       </c>
       <c r="I75" t="n">
-        <v>5.687008389359756</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>7.3964765978535</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7001080857795234</v>
+      </c>
+      <c r="N75" t="n">
+        <v>6.605685117736968</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>7525512556.383267</v>
+        <v>14793272169.1673</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1545421858360353</v>
+        <v>0.1067709802089653</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1732659818994486</v>
+        <v>0.08680345743022982</v>
       </c>
       <c r="I76" t="n">
-        <v>1.379453576177359</v>
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.9499461775790464</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.3555655525524338</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5.463551439648638</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.9865739811237231</v>
+      </c>
+      <c r="N76" t="n">
+        <v>14.26792818282582</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>10531488827.62159</v>
+        <v>13998919643.25979</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1293343061265546</v>
+        <v>0.08588519976103189</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.09258213647881136</v>
+        <v>0.02644134646096969</v>
       </c>
       <c r="I77" t="n">
-        <v>1.593893698520131</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>7.361222098442629</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7399484390772648</v>
+      </c>
+      <c r="N77" t="n">
+        <v>7.437746683102668</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>6647121404.437863</v>
+        <v>3937894630.983678</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1883625021748622</v>
+        <v>0.3046502591920095</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2815159897147698</v>
+        <v>0.6586954691397344</v>
       </c>
       <c r="I78" t="n">
-        <v>1.118133588083382</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>7.287070170838714</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7393542736391626</v>
+      </c>
+      <c r="N78" t="n">
+        <v>7.500015301944538</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>7673317103.769228</v>
+        <v>6993844816.494837</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1450794662784316</v>
+        <v>0.1996233697818466</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1429782857169969</v>
+        <v>0.3551566682250794</v>
       </c>
       <c r="I79" t="n">
-        <v>4.255243953306156</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>7.588956243878174</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7811345167758696</v>
+      </c>
+      <c r="N79" t="n">
+        <v>8.03373409163922</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>5210734854.107591</v>
+        <v>5944877836.074312</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2322432850418477</v>
+        <v>0.2476244627041985</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.421966925794286</v>
+        <v>0.4938848955397289</v>
       </c>
       <c r="I80" t="n">
-        <v>4.625700485711633</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>7.745738804558764</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.795973648463778</v>
+      </c>
+      <c r="N80" t="n">
+        <v>8.173734164716796</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>11020454019.92006</v>
+        <v>7445820583.53644</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1007781855441249</v>
+        <v>0.1361440177918624</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.001181445685317239</v>
+        <v>0.1716946377480097</v>
       </c>
       <c r="I81" t="n">
-        <v>4.245231614592495</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.9642969063886574</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2.936912962564035</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.563776125865319</v>
+      </c>
+      <c r="N81" t="n">
+        <v>8.338609554742344</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>9306175484.111498</v>
+        <v>14290879694.29166</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.123282955706002</v>
+        <v>0.09091234884014582</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.07321334277045589</v>
+        <v>0.04097033815122342</v>
       </c>
       <c r="I82" t="n">
-        <v>1.190391506145272</v>
+        <v>8</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.9572491795685638</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2850288609930136</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.839021804541116</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.6705049728303162</v>
+      </c>
+      <c r="N82" t="n">
+        <v>10.57107765206521</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>10368729329.95156</v>
+        <v>10493996209.06161</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1103966931312834</v>
+        <v>0.1417775926691555</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.03196777870037238</v>
+        <v>0.1879762640317167</v>
       </c>
       <c r="I83" t="n">
-        <v>4.375392017870094</v>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4348619127317448</v>
+      </c>
+      <c r="L83" t="n">
+        <v>7.658644830673563</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.7989644577867618</v>
+      </c>
+      <c r="N83" t="n">
+        <v>8.320644325061675</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>9655908105.391798</v>
+        <v>9696604134.369886</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.142689752736011</v>
+        <v>0.1634315403660624</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1353294362192047</v>
+        <v>0.2505584594666294</v>
       </c>
       <c r="I84" t="n">
-        <v>5.266490163385972</v>
+        <v>3</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9613413822775477</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.2378377024161062</v>
+      </c>
+      <c r="L84" t="n">
+        <v>4.408490714657235</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.9655933139886139</v>
+      </c>
+      <c r="N84" t="n">
+        <v>14.90337556511504</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>3932101911.713751</v>
+        <v>4363733598.211626</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3217529449659141</v>
+        <v>0.2881264796996952</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.7084639913230059</v>
+        <v>0.6109400015462143</v>
       </c>
       <c r="I85" t="n">
-        <v>4.835959598698525</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>7.313978909453668</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.752176730688129</v>
+      </c>
+      <c r="N85" t="n">
+        <v>7.729555704308911</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>5949704555.399151</v>
+        <v>7338347499.471121</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2262913137053535</v>
+        <v>0.2102408900792981</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4029162186028696</v>
+        <v>0.3858424230624837</v>
       </c>
       <c r="I86" t="n">
-        <v>5.146342098822034</v>
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.2591852001149781</v>
+      </c>
+      <c r="L86" t="n">
+        <v>7.482968118056797</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8092318353085922</v>
+      </c>
+      <c r="N86" t="n">
+        <v>8.701668588115048</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>8795072972.395203</v>
+        <v>10179575324.25245</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1235972519400211</v>
+        <v>0.1528470108466201</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0.07421932300576874</v>
+        <v>0.2199680514613969</v>
       </c>
       <c r="I87" t="n">
-        <v>4.155120566169541</v>
+        <v>3</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.3147775909248862</v>
+      </c>
+      <c r="L87" t="n">
+        <v>4.485430603166015</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.7183989127767682</v>
+      </c>
+      <c r="N87" t="n">
+        <v>9.882547652369347</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>4053818726.007024</v>
+        <v>6908632853.814778</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2901230147403395</v>
+        <v>0.1675831390230424</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.6072248379155106</v>
+        <v>0.2625570179814609</v>
       </c>
       <c r="I88" t="n">
-        <v>4.495540082434033</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>7.471800546448978</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7296922557921089</v>
+      </c>
+      <c r="N88" t="n">
+        <v>7.122044569393201</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>9410810756.847807</v>
+        <v>5232182303.934855</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1416742451259943</v>
+        <v>0.2893644242597191</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1320790613374469</v>
+        <v>0.6145177920478545</v>
       </c>
       <c r="I89" t="n">
-        <v>1.446603194013855</v>
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.1749945301878775</v>
+      </c>
+      <c r="L89" t="n">
+        <v>7.398777448129696</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.8038918564757396</v>
+      </c>
+      <c r="N89" t="n">
+        <v>8.679059681385095</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>7959398313.306968</v>
+        <v>10278882058.19493</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1500668509079468</v>
+        <v>0.1098326728148348</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1589416025504125</v>
+        <v>0.09565207236659648</v>
       </c>
       <c r="I90" t="n">
-        <v>4.565626453429664</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>7.739443763310625</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.722872342190966</v>
+      </c>
+      <c r="N90" t="n">
+        <v>6.718003080508694</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>4929909083.63705</v>
+        <v>5826989391.271754</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2555679158834481</v>
+        <v>0.2040853312314773</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.4966229829877564</v>
+        <v>0.3680522079840362</v>
       </c>
       <c r="I91" t="n">
-        <v>4.815934921271203</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>7.261570644798186</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7369663983167322</v>
+      </c>
+      <c r="N91" t="n">
+        <v>7.477757321536457</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>9858906291.473934</v>
+        <v>7259396229.353307</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1458625396656456</v>
+        <v>0.1367536333098652</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1454846993009697</v>
+        <v>0.1734564909685777</v>
       </c>
       <c r="I92" t="n">
-        <v>5.496773953800187</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.9634378044624479</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.077961298221449</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.6311023512063326</v>
+      </c>
+      <c r="N92" t="n">
+        <v>9.544085725905203</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>6699236293.731024</v>
+        <v>7569858104.623826</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1880701821458376</v>
+        <v>0.1370274615010827</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2805803495773606</v>
+        <v>0.1742478833566183</v>
       </c>
       <c r="I93" t="n">
-        <v>1.195884116630631</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>7.645152810048984</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7001080857795234</v>
+      </c>
+      <c r="N93" t="n">
+        <v>6.357008905541484</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>7315737421.99729</v>
+        <v>14045609158.40486</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1625540928279151</v>
+        <v>0.09548376755147513</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.198910005621691</v>
+        <v>0.05418222095484233</v>
       </c>
       <c r="I94" t="n">
-        <v>4.545601776002341</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>7.704956329984499</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7699635725886731</v>
+      </c>
+      <c r="N94" t="n">
+        <v>7.694315121788963</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>11673830594.60036</v>
+        <v>7844795348.95771</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1308143336178229</v>
+        <v>0.1682864244731895</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.09731931829259459</v>
+        <v>0.2645895871971852</v>
       </c>
       <c r="I95" t="n">
-        <v>5.83719347006468</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>7.691538851827624</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7656067884859609</v>
+      </c>
+      <c r="N95" t="n">
+        <v>7.620596917891594</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>6394478151.926476</v>
+        <v>11392908187.74815</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2437317030366984</v>
+        <v>0.1328903380111631</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.4587383541058699</v>
+        <v>0.1622911596031248</v>
       </c>
       <c r="I96" t="n">
-        <v>5.957341534628618</v>
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2259963492218017</v>
+      </c>
+      <c r="L96" t="n">
+        <v>7.44977926716362</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.8038918564757396</v>
+      </c>
+      <c r="N96" t="n">
+        <v>8.62805786235117</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>3800567652.996525</v>
+        <v>11989238486.59717</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4128369110237845</v>
+        <v>0.1267174893299831</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0.1444509750805155</v>
       </c>
       <c r="I97" t="n">
-        <v>5.997390889483265</v>
+        <v>4</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.957100085222837</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3173557580461551</v>
+      </c>
+      <c r="L97" t="n">
+        <v>3.929247217017064</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.9189950645945196</v>
+      </c>
+      <c r="N97" t="n">
+        <v>14.45065407487333</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>10369433394.24105</v>
+        <v>5308362319.456605</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1030635984984038</v>
+        <v>0.2087276458012048</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.008496456215774941</v>
+        <v>0.3814689873048122</v>
       </c>
       <c r="I98" t="n">
-        <v>0.7059875844613366</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>7.350828487582285</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7178164553774277</v>
+      </c>
+      <c r="N98" t="n">
+        <v>7.005500619966269</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>4590792442.24914</v>
+        <v>5566408750.902638</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3041163127200758</v>
+        <v>0.1962280671218902</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.6520137334566669</v>
+        <v>0.3453438850041972</v>
       </c>
       <c r="I99" t="n">
-        <v>0.7638469849053461</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>7.417934630545992</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7139692849238225</v>
+      </c>
+      <c r="N99" t="n">
+        <v>6.861451067930457</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>7604282938.593274</v>
+        <v>7075058222.919824</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.153285794257365</v>
+        <v>0.1858548351927677</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1692446002882417</v>
+        <v>0.3153641493473705</v>
       </c>
       <c r="I100" t="n">
-        <v>4.455490727579387</v>
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.9784213821505602</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2413480853146142</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2.971681389027551</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.7476196051651285</v>
+      </c>
+      <c r="N100" t="n">
+        <v>11.98071071427502</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>8233338204.043032</v>
+        <v>8168012481.458811</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2064756806862631</v>
+        <v>0.1936960262476771</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.3394915478312515</v>
+        <v>0.3380260195019253</v>
       </c>
       <c r="I101" t="n">
-        <v>6.498007825166342</v>
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.413353583507651</v>
+      </c>
+      <c r="L101" t="n">
+        <v>4.02524504247856</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.6664261125568032</v>
+      </c>
+      <c r="N101" t="n">
+        <v>9.303277208657505</v>
       </c>
     </row>
   </sheetData>
